--- a/tests/data/write-result-output.xlsx
+++ b/tests/data/write-result-output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9044849-DD06-4446-ADE9-C1CE420DCC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3823D-317A-45C9-B20D-8F41F149EF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1890" windowWidth="21600" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="3465" windowWidth="9810" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class data" sheetId="1" state="visible" r:id="rId1"/>
